--- a/pred_ohlcv/54_21/2020-01-26 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 DAC ohlcv.xlsx
@@ -10376,7 +10376,7 @@
         <v>-837074.2379999999</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-855207.8576591681</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-820577.957059168</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-862761.282359168</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-861739.146259168</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-858414.9666591677</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-404502.5885591677</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-747246.1783591677</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-709437.4427591676</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-728140.2269591676</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-558919.4376591677</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-573801.8769591677</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-511906.8032591676</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-511906.8032591676</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-529052.4815591676</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-488818.2098591676</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-530387.6409591676</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-484159.0003591676</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-402906.4696591676</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>99397.84944083242</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>143862.8585408324</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>121023.1516408324</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>164609.3066408324</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>129357.4417408324</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>165370.5834408324</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>118021.0533408324</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>135593.1520408324</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>105671.4920408324</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>159624.6980408324</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>115522.7119408324</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>150789.0408408324</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-174415.6648982777</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-168428.9854982777</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-121475.5203982777</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>700438.2815017225</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>591646.6698017229</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>529013.6459017228</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>484117.8156017228</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>437625.8505017228</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>529937.5733806649</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>576128.4507806649</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>527246.8502806649</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>585005.4933806648</v>
       </c>
       <c r="H1221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>632316.5948806648</v>
       </c>
       <c r="H1222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>587648.8898806649</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>548666.8539806649</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>589965.2414806648</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>640063.2171806648</v>
       </c>
       <c r="H1226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>596600.5008806648</v>
       </c>
       <c r="H1227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>570172.5026806648</v>
       </c>
       <c r="H1228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>570172.5026806648</v>
       </c>
       <c r="H1229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>603507.5453806648</v>
       </c>
       <c r="H1230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>555580.1889806647</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>555580.1889806647</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>538695.6591806647</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>581203.2583806647</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>542685.8064806648</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>542685.8064806648</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>567291.3704806648</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>540495.7767806648</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>574516.5318806648</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>646584.7946806648</v>
       </c>
       <c r="H1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>612619.6226806648</v>
       </c>
       <c r="H1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>671574.1626806648</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>630664.9277806648</v>
       </c>
       <c r="H1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>598291.6064806648</v>
       </c>
       <c r="H1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>644315.3754806648</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>602099.4598806648</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>623987.5510806649</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>582698.9124806649</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>557994.9361806649</v>
       </c>
       <c r="H1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>557994.9361806649</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>576413.9908806649</v>
       </c>
       <c r="H1251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>614735.4936806649</v>
       </c>
       <c r="H1252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>677082.7122806649</v>
       </c>
       <c r="H1253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>635194.1504806649</v>
       </c>
       <c r="H1254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>673261.911280665</v>
       </c>
       <c r="H1255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>710907.406080665</v>
       </c>
       <c r="H1256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>673307.2699806649</v>
       </c>
       <c r="H1257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>673307.2699806649</v>
       </c>
       <c r="H1258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>631335.5298806649</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>675923.1890806649</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>737825.3163806649</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>716598.0544806649</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>752123.2457806648</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>705089.3206806649</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>746243.3767806649</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>692314.0371806649</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>753833.5939806649</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>798953.5453806649</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>757331.0796806649</v>
       </c>
       <c r="H1274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>714945.0898806649</v>
       </c>
       <c r="H1275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>747767.2103806649</v>
       </c>
       <c r="H1276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>795619.1496806649</v>
       </c>
       <c r="H1277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>724724.4827806649</v>
       </c>
       <c r="H1278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>762193.5602806649</v>
       </c>
       <c r="H1279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>813884.1556806649</v>
       </c>
       <c r="H1280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>773602.2084806649</v>
       </c>
       <c r="H1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>811563.9364806649</v>
       </c>
       <c r="H1282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>764336.6873806649</v>
       </c>
       <c r="H1283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>764336.6873806649</v>
       </c>
       <c r="H1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>779211.8069806648</v>
       </c>
       <c r="H1285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>735310.9726806649</v>
       </c>
       <c r="H1286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>698864.2795806648</v>
       </c>
       <c r="H1287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>698864.2795806648</v>
       </c>
       <c r="H1288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>699103.1984806648</v>
       </c>
       <c r="H1290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>741558.8395806648</v>
       </c>
       <c r="H1291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>696238.4802806647</v>
       </c>
       <c r="H1292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>748790.7704806648</v>
       </c>
       <c r="H1293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>748790.7704806648</v>
       </c>
       <c r="H1294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>781476.5949806648</v>
       </c>
       <c r="H1295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>781476.5949806648</v>
       </c>
       <c r="H1296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>736979.7969806648</v>
       </c>
       <c r="H1297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>688806.8257806648</v>
       </c>
       <c r="H1298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>740676.9217806648</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>775040.5896806648</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>722783.6886806648</v>
       </c>
       <c r="H1306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>742686.3386806648</v>
       </c>
       <c r="H1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>698293.3606806648</v>
       </c>
       <c r="H1308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>698293.3606806648</v>
       </c>
       <c r="H1309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>677403.7244573518</v>
       </c>
       <c r="H1311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>677403.7244573518</v>
       </c>
       <c r="H1312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>390938.4947573519</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>393716.9459573518</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 DAC ohlcv.xlsx
@@ -10272,7 +10272,7 @@
         <v>-779799.3158999999</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-879453.8572999999</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-880862.9532999999</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-841001.3439</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-787745.8913</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-741327.5603</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-789822.4719</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-708311.5694</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-671280.9735000001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-671280.9735000001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-706786.7978000001</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-716298.0733</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-752616.883</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-691607.8951000001</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-726664.3860000001</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-824114.958059168</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-783788.149259168</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-739882.182059168</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-726470.480859168</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-855223.7376591681</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-800550.590759168</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-823792.5556591681</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-757941.410859168</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-778361.131259168</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-832596.0510591681</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-861739.146259168</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-905295.457459168</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-866157.8574591681</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-849987.0081591681</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-907109.3175591681</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-864694.4577591681</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-819188.2308591681</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-819188.2308591681</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-880579.2198591682</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-842350.9020591682</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-896437.6974591683</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-935536.3815591682</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-889098.4703591682</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-852328.2100591683</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-907633.1545591683</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-907633.1545591683</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-907633.1545591683</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-866746.2391591682</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-489819.3775591682</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-495635.1423591682</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-483662.8293591682</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-450909.3732591682</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-475567.0725591681</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-475567.0725591681</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-483666.6614591681</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-553533.7958591682</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-513587.4359591682</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-625440.9035591681</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-706384.3495591681</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-658814.7720591681</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-613818.3081591681</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-663038.8511591681</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-629502.6544591681</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-683342.4983591681</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-683342.4983591681</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-735042.2860591681</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-718502.115359168</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-675423.1435591681</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-720423.6526591681</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-680016.6050591681</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-634578.372959168</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-592713.2962591681</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-592169.9896591681</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-592169.9896591681</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-631808.246059168</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-631808.246059168</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-672756.795959168</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-630566.987459168</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-605017.1667591679</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-654421.8455591679</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-715408.0847591679</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-664973.8023591678</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-712374.5931591678</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-712374.5931591678</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-655600.6667591678</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-679488.5937591678</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-636076.3916591678</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-636076.3916591678</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-685366.5652591678</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-576129.9862591678</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-617934.2561591677</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-617934.2561591677</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-793241.2126591677</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-793241.2126591677</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-793241.2126591677</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-858414.9666591677</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-858414.9666591677</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-404502.5885591677</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-356427.1086591677</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-395825.5324591677</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-351927.0004591677</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-393450.4341591677</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-376684.6368591677</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-376684.6368591677</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-376684.6368591677</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-331574.9261591677</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-728140.2269591676</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-558919.4376591677</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-573801.8769591677</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-511906.8032591676</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-511906.8032591676</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-488818.2098591676</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-405902.7397591677</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-402906.4696591676</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-337044.5589591676</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-290947.5121591676</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>99397.84944083242</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>143862.8585408324</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>121023.1516408324</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>164609.3066408324</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>129357.4417408324</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>165370.5834408324</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>118021.0533408324</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>135593.1520408324</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>105671.4920408324</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>159624.6980408324</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>115522.7119408324</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>150789.0408408324</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>599382.9096017224</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>652301.9878017225</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>623871.7099017226</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>623871.7099017226</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>576949.4532017227</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>591646.6698017229</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>529013.6459017228</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>484117.8156017228</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>457636.3113017228</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>437625.8505017228</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>586776.9278017229</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>469004.8155017231</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>357648.721901723</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>311937.611801723</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>261445.765801723</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>359644.4274017228</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>551078.8479806648</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>610516.3831806649</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>572700.7204806649</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>529937.5733806649</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>576128.4507806649</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>527246.8502806649</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>585005.4933806648</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>632316.5948806648</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>587648.8898806649</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>548666.8539806649</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>589965.2414806648</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>640063.2171806648</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>596600.5008806648</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>570172.5026806648</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>570172.5026806648</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>603507.5453806648</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>555580.1889806647</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>555580.1889806647</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>538695.6591806647</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>581203.2583806647</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>542685.8064806648</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>542685.8064806648</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>567291.3704806648</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>540495.7767806648</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>574516.5318806648</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>646584.7946806648</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>612619.6226806648</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>671574.1626806648</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>630664.9277806648</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>598291.6064806648</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>644315.3754806648</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>602099.4598806648</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>623987.5510806649</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>582698.9124806649</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>557994.9361806649</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>557994.9361806649</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>576413.9908806649</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>614735.4936806649</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>677082.7122806649</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>635194.1504806649</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>673261.911280665</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>710907.406080665</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>673307.2699806649</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>673307.2699806649</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>631335.5298806649</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>675923.1890806649</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>737825.3163806649</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>716598.0544806649</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>752123.2457806648</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>705089.3206806649</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>746243.3767806649</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>696584.3310806649</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>647485.5430806649</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>692314.0371806649</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>648495.743180665</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>770878.4379806649</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>753833.5939806649</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>798953.5453806649</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>757331.0796806649</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>757331.0796806649</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>714945.0898806649</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>747767.2103806649</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>795619.1496806649</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>724724.4827806649</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>762193.5602806649</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>813884.1556806649</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>773602.2084806649</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>811563.9364806649</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>764336.6873806649</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>764336.6873806649</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>779211.8069806648</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>735310.9726806649</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>698864.2795806648</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>696238.4802806647</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>748790.7704806648</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>748790.7704806648</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>781476.5949806648</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>781476.5949806648</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>736979.7969806648</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>775040.5896806648</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>775040.5896806648</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>739570.6339806648</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>777807.2681806647</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>722783.6886806648</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>742686.3386806648</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>698293.3606806648</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>698293.3606806648</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>677403.7244573518</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>648848.1015573519</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>390938.4947573519</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>453413.5223573518</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>436375.8987573518</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
